--- a/webapp/static/documents/属性.xlsx
+++ b/webapp/static/documents/属性.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rong\PycharmProjects\cfsys\webapp\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rong\Desktop\cfsys-master\webapp\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455124A4-CC94-4F49-930B-FA3AF51607FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819CEE5-DC2E-4515-83DB-C24B1DBF4CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,24 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="137">
-  <si>
-    <t>产品成熟度是对产品固有质量和可靠性的完备程度以及可应用程度的综合度量。通过对产品成熟度的评估,产品开发者可以及时了解产品开发的进展和完成情况,从而对产品开发的风险进行有效地控制,以达到减少产品开发的风险,推动产品的研发和培育,实现产品的持续完善,促进产品市场化的目的。根据产品成熟的一般规律,确定了产品成熟度的关键影响要素,即产品设计成熟度、产品制造工艺成熟度和产品过程保障成熟度,为构建产品成熟度评价的指标体系奠定了坚实的理论基础。最后,结合产品成熟的表征要素,确定了产品成熟等级划分标准。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级成熟度（成熟型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能完备且具有超前性、系统组件化程度极高、缺陷极少且完全可控；性能卓越、达到同类产品的领先水平；架构先进，部署灵活，可扩展性高、可移植性强；产品中长期路线清晰可控、在产品技术预研方面处于领先地位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级成熟度（初创型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础功能实现、无中断性错误；性能符合基本要求；架构基本合理；对产品未来有一定思考。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,22 +57,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自主知识产权，是指我国的权利人具有独立支配权或相对控制权的知识产权，即我国的公民、法人或非法人单位，所依法拥有的、可以独立地行使知识产权各项权能的知识产权，或虽然不拥有所有权，但在一个较长的时期内可以独立行使知识产权各项权能，并能不受他人制约地进行集成创新和引进消化吸收再创新的知识产权。自主知识产权的来源方式主要包括：自主研发或设计；受让或受赠；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级自主度（自主型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主成分占75%（含）以上，认为基本做到公司级自主可控。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,22 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自主成分占50%（含）-75%，认为主体部分自主可控。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级自主度（外协型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主成分占50%以下：认为主要是外协类产品，基本无自主参与部分。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依托物联网、云计算、大数据技术等新兴技术，根据公安政府等部门的实际情况以及业务需求，协助各地公安机关开展公安信息化的建设，有效实现传统警务向信息警务智慧警务的转变，实现以应用驱动为根本导向、以基础设施建设为关键支撑、以大数据综合应用为发展龙头、以自主创新为重要途径、以信息安全为主要保障的业务目标；设计用途合理、性价比高、安全性高的智能化指挥中心、数据中心整体解决方案，建设一个智能化、信息化、数字化的指挥中心办公环境和数据中心。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能防控技术系统是为满足复杂、大型的整体安全防控和安保业务管理而设计的技术系统。指挥联动技术系统综合应用多模态探测、大规模异构视频集成、综合态势显示、动态警力仿真和综合通信调度等技术，构建智能化联动指挥体系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包括国土边防及海防监控指挥系统，重要工矿厂所及生产部门的安全生产监管系统，军队、武警、公安等部门的数字化训练环境等建设。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B106</t>
   </si>
   <si>
@@ -236,19 +185,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麻醉机是手术患者全身麻醉时用于保证患者呼吸、维持麻醉状态的医疗设备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手术床及周边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术床主要用来在术中支撑人体，并变换相应体位，方便手术的开展。吊塔用来承载医疗设备，并提供电源、气源、信息接口。LED手术灯为手术提供照明，同时达到无影效果及冷光源。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,32 +499,6 @@
   </si>
   <si>
     <r>
-      <t>应急反恐现场处置系统是为应急与反恐部门研发设计的一体化现场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解决方案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，应用重大突发事件现场。在核心现场通过数字化单兵系统、无人机监视系统、车载复合监视系统、干扰车、通讯车等将现场情况提供给应急指挥车，指挥车以及指挥方舱就组成了现场指挥中心，通过动中通、卫星将情况反映给后方指挥中心，在应急反恐突发事件现场，快速构建后方指挥中心、现场指挥中心和核心现场 三级作战体系，系统实现现场环境控制、指挥网络搭建和辅助指挥决策，提升应急与反恐现场的处置指挥效率。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -726,62 +641,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明：如有新增业务类型，则继续按</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“B5”“B6”“B7”“B8”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大类编号，这里将无法定义的业务类型归入</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“B9”——</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他业务。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Technology,</t>
     </r>
     <r>
@@ -829,11 +688,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能完备、基本实现功能组件化、缺陷极少且可控；性能卓越，达到同类产品先进水平；架构先进，部署灵活，可扩展性高、可移植性强；产品中期路线清晰、技术预研基础扎实。 功能完备、无中断性错误、缺陷较少；性能完全符合要求；架构合理，具有一定的前瞻性；对产品未来2-3个版本的定义清晰、有一定预研基础。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品成熟度是对产品功能完备性、可用性、易用性、可靠性、合理性、发展性等方面的综合度量。通过对产品成熟度的评估，可以及时了解产品研发水平和内在价值情况，从而对产品市场推广的风险进行有效地控制，对产品的利润空间有合理掌握，进而为产品的持续改进和市场化提升提供决策支持依据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完备、基本实现功能组件化；无中断性错误、缺陷较少且可控；性能完全符合要求，达到同类产品平均水平；架构合理，具有一定的前瞻性；对产品未来2-3个版本的定义清晰，有一定预研基础。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完备且达到同类产品的先进水平、产品组件化程度极高、缺陷极少且完全可控；性能卓越、达到同类产品的领先水平；架构先进，部署灵活，可扩展性高、可移植性强；产品中长期路线清晰可控、在产品技术预研方面处于领先地位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主成分占50%以下，认为主要依靠外协而产生的产品能力，自主度较低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主成分占50%（含）至75%，认为主体部分实现自主，自主度中等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主成分占75%（含）以上，认为产品级实现自主，自主度较高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依托物联网、云计算、大数据技术等新兴技术，根据公安政府等部门的实际情况以及业务需求，协助各地公安机关开展公安信息化的建设，有效实现传统警务向信息警务智慧警务的转变，实现以应用驱动为根本导向、以基础设施建设为关键支撑、以大数据综合应用为发展龙头、以自主创新为重要途径、以信息安全为主要保障的业务目标；设计用途合理、性价比高、安全性高的智能化指挥中心、数据中心整体解决方案，建设智能化、信息化、数字化的指挥中心办公环境和数据中心等业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合了包括智能防控技术系统（为满足复杂、大型的整体安全防控和安保业务管理而设计的技术系统）和指挥联动技术系统（综合应用多模态探测、大规模异构视频集成、综合态势显示、动态警力仿真和综合通信调度等技术，构建智能化联动指挥体系）在内的综合防控业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立足于地理信息技术与服务、时空大数据分析与挖掘，提供定制化地理信息应用云平台及整体解决方案。专注于公共安全领域的系统集成、警务地理信息云服务、警种地理信息应用等业务。基于多源多维地图、空间标准地址、智能物联网、移动互联，融合集成大数据资源，为智慧公共安全提供全方位的时空应用与服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立足于军队、武警、公安等部门开展的国土边防及海防监控指挥系统建设、数字化训练环境建设等业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依托政法综治工作中心建设专群结合的治安联防工作网络，最终实现联调、联治的综合治安防控。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急反恐现场处置系统是为应急与反恐部门研发设计的一体化现场解决方案，应用重大突发事件现场。在核心现场通过数字化单兵系统、无人机监视系统、车载复合监视系统、干扰车、通讯车等将现场情况提供给应急指挥车，指挥车以及指挥方舱就组成了现场指挥中心，通过动中通、卫星将情况反映给后方指挥中心，在应急反恐突发事件现场，快速构建后方指挥中心、现场指挥中心和核心现场 三级作战体系，系统实现现场环境控制、指挥网络搭建和辅助指挥决策，提升应急与反恐现场的处置指挥效率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指法人或者其他组织面向社会公众举办的涉及人数达到1000人以上或影响广泛的活动，包括国际体育赛事、演唱会、音乐会等文艺演出活动、国内国际展览、国际论坛等活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种动态影像的捕捉、识别、分析、存储、传输等应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特指基础技术类产品，比如类库、框架、开发者工具、内部平台等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术患者全身麻醉时用于保证患者呼吸、维持麻醉状态的医疗设备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在医疗手术中支撑人体的设备，包括吊塔（用来承载医疗设备，并提供电源、气源、信息接口）、LED手术灯等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断和治疗使用的临床超声仪器设备等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗呼吸机、急救和转运用呼吸机、高频呼吸机、家用呼吸机、家用呼吸支持设备、睡眠呼吸暂停治疗设备等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洁净工程是一个应用行业非常广泛的基础性配套产业，在电子信息、半导体、光电子、精密制造、医药卫生、生物工程、航天航空、汽车喷涂等众多行业均有应用，对精密与无尘均有不同等级的要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控系统是安防系统中应用最多的系统之一，现在市面上较为适合的工地监控系统是手持式视频通信设备，视频监控现在是主流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测成像器是以成像为基础的观察 、记录粒子的装置 ，对于成像探测器，空间分辨率是探测器的重要指标，成像探测器广泛应用于深空探测 、生物微弱发光和环境辐射检测等领域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用计算机技术和数字图像处理技术进行运动目标的识别与跟踪的技术，包括利用红外技术进行目标的识别及跟踪的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶辅助系统是利用安装在车上的各式各样传感器（毫米波雷达、激光雷达、单\双目摄像头以及卫星导航），在汽车行驶过程中随时来感应周围的环境，收集数据，进行静态、动态物体的辨识、侦测与追踪，并结合导航仪地图数据，进行系统的运算与分析，从而预先让驾驶者察觉到可能发生的危险，有效增加汽车驾驶的舒适性和安全性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明：如有新增业务类型，则继续按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“B5”“B6”“B7”“B8”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大类编号，这里将无法定义的业务类型归入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“B9”——</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他业务。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是指用来构建与支撑应用软件的独立软件系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用系统类是指为满足应用型功能或功能集合而开发的计算机软件形态的信息化交付物。所谓应用型功能或功能集合通常指特定业务领域和应用场景下可以被终端用户直接使用的功能，而非底层或支撑性的基础功能（以此区别于平台类）。在本制度设定中，我们将主体在移动端设备上使用的应用系统单独划分至T14类，而将主体通过PC端访问包含强大后台功能的应用系统归于本类。如果一个应用系统类产品既包含移动端应用又包含PC端应用，也同样归于本类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式系统是指用于执行独立功能的专用计算机系统，包括微处理器、定时器、微控制器、存储器、传感器等一系列微电子芯片与器件，和嵌入在存储器中的微型操作系统、控制应用软件组成，共同实现诸如实时控制、监视、管理、移动计算、数据处理等各种自动化处理任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应用包含个人以及企业级应用，涉及到企业信息化应用场景的完善、扩展，带来ERP的延伸等，通过广泛的产业链合作为用户提供低成本整体解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通用硬件系统集成是基本标准化的资源连接安装起来，在软件平台及仪器驱动程序的支持下进行硬件集成，要求所有测试资源工作正常，程控资源控制准确可靠，仪器性能指标满足要求。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化的特殊硬件产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指能够实现交易的无形产品，无需中间媒介（物流）的参与即可完成交易的综合性产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述技术形态中两项或两项以上的融合技术形态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级成熟度（初创型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级成熟度（成熟型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级自主度（自主型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级自主度（外协型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品自主程度指该产品在其产生过程中我方的贡献度，主要指技术层面，可以通过其外部技术力量所占比例的高低来衡量，自主成分占比=100%—外部技术力量占比。其中外部技术力量主要是在使用中会产生外部成本的技术，比如需要购买或者让渡其他商业价值的合作方资源等，免费开源的外部技术不包含在内，另外对于非巨大成本的通用类部件的采购，亦不包含在内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据是指所涉及的数据资料量规模巨大到无法通过人脑甚至主流软件的工具。在合理时间内达到撷取、管理、处理、并整理成为帮助企业经营决策更积极目的的资讯。大数据的类型大致可分为三类：1.传统企业数据：包括消费者数据，传统的ERP数据，库存数据以及账目数据等。2.机器和传感器数据：包括呼叫记录，智能仪表，工业设备传感器，设备日志，交易数据等。3.社交数据：包括用户行为记录，反馈数据等。如Twitter，Facebook这样的社交媒体平台。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,21 +963,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="仿宋_GB2312"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="仿宋_GB2312"/>
       <family val="3"/>
       <charset val="134"/>
@@ -926,8 +975,43 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +1021,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,9 +1110,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,44 +1128,86 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,42 +1491,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="127.88671875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="4" width="8.86328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.53125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="127.86328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>130</v>
+        <v>94</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
@@ -1381,83 +1534,83 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="7">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -1465,81 +1618,81 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>133</v>
+      <c r="B7" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -1547,1019 +1700,1061 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>134</v>
+      <c r="B12" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G15" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G16" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="G17" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G22" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>134</v>
+      <c r="B26" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>134</v>
+      <c r="B27" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>134</v>
+      <c r="B28" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>134</v>
+      <c r="B29" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>134</v>
+      <c r="B30" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>134</v>
+      <c r="B38" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>134</v>
+      <c r="B39" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>134</v>
+      <c r="B40" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>134</v>
+      <c r="B41" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>134</v>
+      <c r="B42" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>134</v>
+      <c r="B43" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>125</v>
+      <c r="F44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>134</v>
+      <c r="B45" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="38"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="F54" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="21" t="s">
+      <c r="G54" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="22" t="s">
+      <c r="F56" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="G56" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="22" t="s">
+      <c r="E57" s="17"/>
+      <c r="F57" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="G57" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="9"/>
+      <c r="F58" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
